--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1493240.566305991</v>
+        <v>-1497380.272719947</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13625743.34803285</v>
+        <v>13622793.45108075</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>247.6501358153552</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>44.03509467109939</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.6217034654838</v>
+        <v>17.59637975615502</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.9076148963215</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>321.4978002293259</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>85.32626644439924</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615104</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722125</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>79.92938740919237</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.44859076233495</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>50.92496340568142</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>19.77902941569062</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.9165208003417</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>253.8243076884219</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>26.32608977062904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>209.4263317047752</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
@@ -1585,13 +1585,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>55.13501531797472</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>205.5526071469625</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>100.3658426524347</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>256.6613887135642</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97552290618079</v>
+        <v>46.22524896495538</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,10 +1819,10 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1898,7 +1898,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2096,7 +2096,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135908</v>
       </c>
       <c r="I20" t="n">
         <v>6.593776422875436</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227887</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.062300156464</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838893</v>
+        <v>24.17382596574961</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828905</v>
+        <v>52.06849973564974</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431737</v>
+        <v>70.57601873167806</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459978</v>
+        <v>55.72314698196047</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643951</v>
+        <v>41.29686219380019</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931862</v>
+        <v>41.22330424667931</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908588</v>
+        <v>42.97275566644657</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147802</v>
+        <v>53.79159358883871</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805006</v>
+        <v>41.14384575541075</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922199</v>
+        <v>18.98356133658268</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367791</v>
+        <v>9.8820597010386</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920523</v>
+        <v>88.00800320656592</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.2310716764908</v>
+        <v>1028.900705040587</v>
       </c>
       <c r="C2" t="n">
-        <v>468.0555701794214</v>
+        <v>1028.900705040587</v>
       </c>
       <c r="D2" t="n">
-        <v>468.0555701794214</v>
+        <v>1028.900705040587</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596593</v>
+        <v>1028.900705040587</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634775</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123377</v>
+        <v>1552.058346020844</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760839</v>
+        <v>2065.661024630532</v>
       </c>
       <c r="O2" t="n">
-        <v>2042.925620653167</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678799</v>
+        <v>1685.148180317386</v>
       </c>
       <c r="U2" t="n">
-        <v>1963.789521071628</v>
+        <v>1429.395450751984</v>
       </c>
       <c r="V2" t="n">
-        <v>1621.682711775147</v>
+        <v>1429.395450751984</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.683676743434</v>
+        <v>1429.395450751984</v>
       </c>
       <c r="X2" t="n">
-        <v>861.2310716764908</v>
+        <v>1429.395450751984</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.2310716764908</v>
+        <v>1429.395450751984</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.7695259828332</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811464</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466461</v>
+        <v>1669.540969100521</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1669.540969100521</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996756</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675978</v>
+        <v>887.3033373467674</v>
       </c>
       <c r="Y3" t="n">
-        <v>986.9239692675978</v>
+        <v>707.9891204222747</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>382.9931810662277</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>382.9931810662277</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>227.3600679687424</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>227.3600679687424</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>227.3600679687424</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>227.3600679687424</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023642</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023642</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>382.9931810662277</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>382.9931810662277</v>
       </c>
       <c r="V4" t="n">
-        <v>784.0184448639509</v>
+        <v>382.9931810662277</v>
       </c>
       <c r="W4" t="n">
-        <v>500.6880427951286</v>
+        <v>382.9931810662277</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>382.9931810662277</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>382.9931810662277</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>607.8495662439052</v>
+        <v>1324.063579774246</v>
       </c>
       <c r="C5" t="n">
-        <v>607.8495662439052</v>
+        <v>1324.063579774246</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>1324.063579774246</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>921.4800548907906</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>504.5856164207684</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1407.408573112016</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465278</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523738</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958337</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="V5" t="n">
-        <v>1404.835021034701</v>
+        <v>1695.062614805959</v>
       </c>
       <c r="W5" t="n">
-        <v>1404.835021034701</v>
+        <v>1324.063579774246</v>
       </c>
       <c r="X5" t="n">
-        <v>1404.835021034701</v>
+        <v>1324.063579774246</v>
       </c>
       <c r="Y5" t="n">
-        <v>1008.344311955302</v>
+        <v>1324.063579774246</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021438</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>505.159187462236</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837163</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>238.623729194604</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777358</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591877</v>
+        <v>1038.672011264339</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1669.540969100521</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675978</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431051</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.5245449990326</v>
+        <v>425.5395450120515</v>
       </c>
       <c r="C7" t="n">
-        <v>393.5245449990326</v>
+        <v>255.3344270780407</v>
       </c>
       <c r="D7" t="n">
-        <v>237.8914319015474</v>
+        <v>255.3344270780407</v>
       </c>
       <c r="E7" t="n">
-        <v>82.33261976074988</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="F7" t="n">
-        <v>82.33261976074988</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="G7" t="n">
-        <v>82.33261976074988</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>393.5245449990326</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W7" t="n">
-        <v>393.5245449990326</v>
+        <v>659.6198672290684</v>
       </c>
       <c r="X7" t="n">
-        <v>393.5245449990326</v>
+        <v>425.5395450120515</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.5245449990326</v>
+        <v>425.5395450120515</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>513.9042144752598</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="C8" t="n">
-        <v>120.7287129781903</v>
+        <v>946.6063935042171</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>946.6063935042171</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>946.6063935042171</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>529.7119550341948</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4838,16 +4838,16 @@
         <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1310.889669266056</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.889669266056</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y8" t="n">
-        <v>914.3989601866567</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="V10" t="n">
-        <v>427.6021490532311</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="W10" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1702.435468430418</v>
+        <v>1740.987110988345</v>
       </c>
       <c r="C11" t="n">
-        <v>1381.056242079542</v>
+        <v>1419.60788463747</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442404</v>
+        <v>1105.963031000331</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>775.1757812630697</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>430.0776179392413</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>88.7111375734378</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>88.7111375734378</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2647.993028801889</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="W11" t="n">
-        <v>2348.79026891637</v>
+        <v>2712.036345407502</v>
       </c>
       <c r="X11" t="n">
-        <v>2031.133938995621</v>
+        <v>2394.380015486753</v>
       </c>
       <c r="Y11" t="n">
-        <v>2031.133938995621</v>
+        <v>2069.685581553548</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.6374311877011</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="C13" t="n">
-        <v>460.2285883998842</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="D13" t="n">
-        <v>376.3917504485927</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5233,16 +5233,16 @@
         <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>932.4556051811526</v>
+        <v>793.9644698127918</v>
       </c>
       <c r="W13" t="n">
-        <v>720.9214782585242</v>
+        <v>586.3355737047484</v>
       </c>
       <c r="X13" t="n">
-        <v>558.6374311877011</v>
+        <v>586.3355737047484</v>
       </c>
       <c r="Y13" t="n">
-        <v>558.6374311877011</v>
+        <v>586.3355737047484</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.296937795194</v>
+        <v>1780.935942880365</v>
       </c>
       <c r="C14" t="n">
-        <v>1047.917711444319</v>
+        <v>1459.556716529489</v>
       </c>
       <c r="D14" t="n">
-        <v>734.2728578071806</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>403.4856080699185</v>
+        <v>815.1246131550882</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293022</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293022</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2909.859466250158</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>2639.54893209987</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="W14" t="n">
-        <v>2340.346172214352</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="X14" t="n">
-        <v>2022.689842293602</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.995408360398</v>
+        <v>2109.634413445568</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>254.6298380530037</v>
+        <v>448.8129080859853</v>
       </c>
       <c r="C16" t="n">
-        <v>254.6298380530037</v>
+        <v>350.4040652981683</v>
       </c>
       <c r="D16" t="n">
-        <v>254.6298380530037</v>
+        <v>266.567227346877</v>
       </c>
       <c r="E16" t="n">
-        <v>170.8673010584001</v>
+        <v>266.567227346877</v>
       </c>
       <c r="F16" t="n">
-        <v>170.8673010584001</v>
+        <v>266.567227346877</v>
       </c>
       <c r="G16" t="n">
-        <v>170.8673010584001</v>
+        <v>170.1094485925162</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915625</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="W16" t="n">
-        <v>530.325628668934</v>
+        <v>724.5086987019157</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981111</v>
+        <v>562.2246516310927</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.0415815981111</v>
+        <v>562.2246516310927</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
@@ -5543,16 +5543,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>830.5413617456916</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,16 +5674,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5741,25 +5741,25 @@
         <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680344</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
         <v>2132.883732040978</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5902,34 +5902,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.744905612751</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,13 +6251,13 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
@@ -6385,49 +6385,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6467,46 +6467,46 @@
         <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517124</v>
@@ -6604,31 +6604,31 @@
         <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835474</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861562</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>794.4915056886011</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.91015174159</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.18414451324</v>
+        <v>1876.87284331499</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877773</v>
+        <v>2404.684126952453</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770101</v>
+        <v>2844.723727844781</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901623</v>
+        <v>3192.911219976303</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380769</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696893</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946332</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965131</v>
+        <v>365.67136769297</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404846</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237461</v>
+        <v>267.6713584245248</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652528</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597512</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407222</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374169</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067526</v>
+        <v>342.9206752648156</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>618.7004357135985</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188163</v>
+        <v>804.9920140518625</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770957</v>
+        <v>988.1816480830717</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1256.686073727023</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503601</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387755</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250156</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273653</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400684</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.153225804577</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027458</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803437</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6947,25 +6947,25 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>346.0196676966397</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885595</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072676</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462923</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291065</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390484</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128481</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511122</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823213</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240293</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918807</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161902</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194228</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330089</v>
       </c>
       <c r="X37" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984005</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750519</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7567,25 +7567,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229933</v>
+        <v>67.6987703122989</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446697</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519568</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920137</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>159.1611234709515</v>
       </c>
       <c r="P2" t="n">
-        <v>283.4906887405025</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,16 +8058,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463309841</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>611.1777065035415</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211829</v>
+        <v>604.1626973083962</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8076,7 +8076,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519568</v>
       </c>
       <c r="N5" t="n">
-        <v>212.7983422525436</v>
+        <v>667.9090757920137</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>305.2720051970407</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269434</v>
+        <v>611.1777065035415</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>203.8228999516362</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431185</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>92.83741255226374</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>429.0180294423952</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N24" t="n">
-        <v>187.5973797276328</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>376.3651575480042</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.54934357309884</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>58.18109710400961</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>137.1062240146774</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.866178506439752</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>81.7510472225807</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>10.94604009522067</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.86993022720823</v>
+        <v>36.62020416843367</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.508509740307673e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1190441.229812788</v>
+        <v>1188937.360778387</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1190441.229812788</v>
+        <v>1188937.360778387</v>
       </c>
     </row>
     <row r="4">
@@ -26329,10 +26329,10 @@
         <v>126232.5246653496</v>
       </c>
       <c r="H2" t="n">
+        <v>126232.5246653498</v>
+      </c>
+      <c r="I2" t="n">
         <v>126232.5246653496</v>
-      </c>
-      <c r="I2" t="n">
-        <v>126232.5246653497</v>
       </c>
       <c r="J2" t="n">
         <v>126232.5246653498</v>
@@ -26341,19 +26341,19 @@
         <v>126232.5246653498</v>
       </c>
       <c r="L2" t="n">
-        <v>126232.5246653499</v>
+        <v>126232.5246653498</v>
       </c>
       <c r="M2" t="n">
-        <v>126232.5246653495</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="N2" t="n">
-        <v>126232.5246653497</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="O2" t="n">
         <v>126232.5246653496</v>
       </c>
       <c r="P2" t="n">
-        <v>126232.5246653496</v>
+        <v>126232.5246653497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401379</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972855</v>
+        <v>62456.24177539699</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962294</v>
+        <v>43252.52447081129</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907738</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,7 +26430,7 @@
         <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761036</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="N4" t="n">
         <v>186364.8769761035</v>
-      </c>
-      <c r="N4" t="n">
-        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315419</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344211.335815471</v>
+        <v>-339559.1161942959</v>
       </c>
       <c r="C6" t="n">
-        <v>-162006.3875236151</v>
+        <v>-165700.4591602411</v>
       </c>
       <c r="D6" t="n">
-        <v>-169750.9682272356</v>
+        <v>-177487.2574506275</v>
       </c>
       <c r="E6" t="n">
-        <v>-192363.2252613261</v>
+        <v>-192572.9568080157</v>
       </c>
       <c r="F6" t="n">
-        <v>-80240.66378728159</v>
+        <v>-80450.39533397109</v>
       </c>
       <c r="G6" t="n">
         <v>-165727.4471629555</v>
       </c>
       <c r="H6" t="n">
+        <v>-118302.1216262735</v>
+      </c>
+      <c r="I6" t="n">
         <v>-118302.1216262736</v>
       </c>
-      <c r="I6" t="n">
-        <v>-118302.1216262735</v>
-      </c>
       <c r="J6" t="n">
-        <v>-331344.0392235589</v>
+        <v>-324827.7540689855</v>
       </c>
       <c r="K6" t="n">
         <v>-124541.8900290563</v>
       </c>
       <c r="L6" t="n">
-        <v>-179724.4789636775</v>
+        <v>-183773.3161741499</v>
       </c>
       <c r="M6" t="n">
-        <v>-160502.9510858965</v>
+        <v>-161554.646097085</v>
       </c>
       <c r="N6" t="n">
         <v>-118302.1216262736</v>
       </c>
       <c r="O6" t="n">
-        <v>-146069.8156690447</v>
+        <v>-146069.8156690448</v>
       </c>
       <c r="P6" t="n">
-        <v>-118302.1216262736</v>
+        <v>-118302.1216262735</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,13 +26710,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293128</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660688</v>
+        <v>78.07030221924623</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551343</v>
+        <v>17.58004954287418</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506548</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971637</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407262</v>
+        <v>117.1268713042806</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506548</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.0753582699668</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>209.160107598648</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.656667631067933</v>
+        <v>132.6819913403967</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>2.454246417126683</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,13 +27622,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>87.53332772755095</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>253.3594747591175</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270316</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758594</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>74.07383661019713</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27789,10 +27789,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>115.475174765786</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27828,16 +27828,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>330.6617540898175</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>389.2520985411862</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>129.8361546388151</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28071,7 +28071,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>26.67279035971228</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>5.636002634529035</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28980,17 +28980,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,10 +29302,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="M26" t="n">
-        <v>30.27223765901272</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29539,46 +29539,46 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566568</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.4950968315959</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045359</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224678</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155843</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.01250026485354</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30405,10 +30405,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,13 +30876,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668816</v>
+        <v>35.71049010668774</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>9.597286046855148</v>
       </c>
       <c r="P2" t="n">
-        <v>133.1892414995773</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299765058</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701622</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N5" t="n">
-        <v>63.67985091475948</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>155.7081677729443</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776315</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>118.4507870974695</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>338.957682585477</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2252668734662</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36835,7 +36835,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>531.134972901782</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987992</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044898</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338767</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>595.0111574826874</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273761</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055114</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272636</v>
+        <v>195.4415774595202</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947302</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>271.2165915595467</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449131</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>286.7682222146709</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529066</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.46926427500603</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>210.9596397950874</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528664</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
